--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2206_GPS368.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2206_GPS368.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="80">
   <si>
     <t>STT</t>
   </si>
@@ -229,13 +229,55 @@
   </si>
   <si>
     <t>Sim</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200520</t>
+  </si>
+  <si>
+    <t>device.protrack365.com/8841</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200624</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>Kiểm tra lại dịch vụ trên server</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi nguồn</t>
+  </si>
+  <si>
+    <t>Xử lý khối nguồn</t>
+  </si>
+  <si>
+    <t>125.212.203.114/16060</t>
+  </si>
+  <si>
+    <t>Sai imei, thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Xử lý lại phần cứng</t>
+  </si>
+  <si>
+    <t>ID: 860906041197374, sim lỗi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,12 +339,6 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -431,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -607,8 +643,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -625,32 +682,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -961,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -994,43 +1027,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1075,26 +1108,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
+      <c r="L4" s="59"/>
       <c r="M4" s="65" t="s">
         <v>42</v>
       </c>
@@ -1104,7 +1137,7 @@
       <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="63" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="65" t="s">
@@ -1113,20 +1146,20 @@
       <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="67" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="59" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1151,7 +1184,7 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
@@ -1161,13 +1194,13 @@
       <c r="M5" s="66"/>
       <c r="N5" s="66"/>
       <c r="O5" s="66"/>
-      <c r="P5" s="64"/>
+      <c r="P5" s="71"/>
       <c r="Q5" s="66"/>
       <c r="R5" s="66"/>
-      <c r="S5" s="67"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1177,7 +1210,9 @@
       <c r="B6" s="54">
         <v>44741</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44741</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>45</v>
       </c>
@@ -1189,19 +1224,35 @@
         <v>64</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="1"/>
+      <c r="I6" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>68</v>
+      </c>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>75</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>31</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="58"/>
-      <c r="U6" s="60" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1216,7 +1267,9 @@
       <c r="B7" s="54">
         <v>44741</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="54">
+        <v>44741</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>45</v>
       </c>
@@ -1227,20 +1280,38 @@
       <c r="G7" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
+      <c r="H7" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="K7" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="58"/>
-      <c r="U7" s="61"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1253,7 +1324,9 @@
       <c r="B8" s="54">
         <v>44741</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="54">
+        <v>44741</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>45</v>
       </c>
@@ -1265,19 +1338,35 @@
         <v>64</v>
       </c>
       <c r="H8" s="37"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="55"/>
+      <c r="I8" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>68</v>
+      </c>
       <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>73</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="58"/>
-      <c r="U8" s="61"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1290,7 +1379,9 @@
       <c r="B9" s="54">
         <v>44741</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="54">
+        <v>44741</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>45</v>
       </c>
@@ -1303,20 +1394,38 @@
       <c r="G9" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="H9" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="M9" s="39" t="s">
+        <v>78</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
+      <c r="O9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="58"/>
-      <c r="U9" s="61"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1345,7 +1454,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="58"/>
-      <c r="U10" s="61"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1374,7 +1483,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="58"/>
-      <c r="U11" s="61"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1403,7 +1512,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="58"/>
-      <c r="U12" s="60" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1434,7 +1543,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="58"/>
-      <c r="U13" s="61"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1463,7 +1572,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="58"/>
-      <c r="U14" s="61"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1492,7 +1601,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="61"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1521,7 +1630,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="62"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1639,7 +1748,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -1671,7 +1780,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -1852,7 +1961,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -1916,7 +2025,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -2108,7 +2217,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2140,7 +2249,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -2172,7 +2281,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3237,6 +3346,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3248,13 +3364,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3298,43 +3407,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -3379,58 +3488,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
+      <c r="L4" s="59"/>
       <c r="M4" s="65" t="s">
         <v>42</v>
       </c>
       <c r="N4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="67" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="59" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -3455,7 +3564,7 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
@@ -3464,14 +3573,14 @@
       </c>
       <c r="M5" s="66"/>
       <c r="N5" s="66"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="67"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3497,7 +3606,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="60" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3528,7 +3637,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="61"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3557,7 +3666,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="61"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3586,7 +3695,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="61"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3615,7 +3724,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="61"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3644,7 +3753,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="61"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3673,7 +3782,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="60" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3704,7 +3813,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="61"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3733,7 +3842,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="61"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3762,7 +3871,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="61"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3791,7 +3900,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="62"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5022,13 +5131,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5040,6 +5142,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2206_GPS368.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2206_GPS368.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNETGPS\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang6\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang6\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -643,6 +643,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -660,30 +684,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -994,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1027,43 +1027,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="63"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1108,58 +1108,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="65" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="66" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="59" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="59" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1184,23 +1184,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="66"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="58"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="59" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="58"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="60"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="58"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="60"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="58"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="60"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1454,7 +1454,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="58"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="60"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1483,7 +1483,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="58"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="60"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1512,7 +1512,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="58"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="59" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1543,7 +1543,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="58"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="60"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1572,7 +1572,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="58"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="60"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1601,7 +1601,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="60"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1630,7 +1630,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="61"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3346,13 +3346,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3364,6 +3357,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3407,43 +3407,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="63"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -3488,58 +3488,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="65" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="59" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="59" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="66" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="59" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="59" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -3564,23 +3564,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="59"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="67"/>
       <c r="P5" s="73"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="72"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="66"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3606,7 +3606,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="59" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3637,7 +3637,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="60"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3666,7 +3666,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="60"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3695,7 +3695,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="60"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3724,7 +3724,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="60"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3753,7 +3753,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="60"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3782,7 +3782,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="59" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3813,7 +3813,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="60"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3842,7 +3842,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="60"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3871,7 +3871,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="60"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3900,7 +3900,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="61"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5131,6 +5131,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5142,13 +5149,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2206_GPS368.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2206_GPS368.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang6\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNETGPS\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang6\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -643,6 +643,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -658,32 +682,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -994,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1027,43 +1027,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1108,58 +1108,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="59"/>
+      <c r="M4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="66" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="59" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1184,23 +1184,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="58"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="58"/>
-      <c r="U7" s="60"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="58"/>
-      <c r="U8" s="60"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="58"/>
-      <c r="U9" s="60"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1454,7 +1454,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="58"/>
-      <c r="U10" s="60"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1483,7 +1483,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="58"/>
-      <c r="U11" s="60"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1512,7 +1512,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="58"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1543,7 +1543,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="58"/>
-      <c r="U13" s="60"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1572,7 +1572,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="58"/>
-      <c r="U14" s="60"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1601,7 +1601,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="60"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1630,7 +1630,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="61"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3346,6 +3346,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3357,13 +3364,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3407,43 +3407,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -3488,58 +3488,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="59"/>
+      <c r="M4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="59" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="66" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="59" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -3564,23 +3564,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="67"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="59"/>
       <c r="P5" s="73"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="66"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3606,7 +3606,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3637,7 +3637,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="60"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3666,7 +3666,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="60"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3695,7 +3695,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="60"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3724,7 +3724,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="60"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3753,7 +3753,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="60"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3782,7 +3782,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3813,7 +3813,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="60"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3842,7 +3842,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="60"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3871,7 +3871,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="60"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3900,7 +3900,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="61"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5131,13 +5131,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5149,6 +5142,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
